--- a/temp/excel_files/data_import.xlsx
+++ b/temp/excel_files/data_import.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Users\panvo\Documents\Github Desctop\Prakt\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB11\Desktop\db_task\Prakt\temp\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85107F84-9305-4A51-A1A3-E055063CD224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,25 +405,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -444,7 +443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -464,7 +463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/temp/excel_files/data_import.xlsx
+++ b/temp/excel_files/data_import.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
